--- a/wzrv/expdata/2007.xlsx
+++ b/wzrv/expdata/2007.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B96FDA-AF60-114F-891F-44C152E4188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="1800" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -62,9 +72,6 @@
     <t>syst5</t>
   </si>
   <si>
-    <t>syst6</t>
-  </si>
-  <si>
     <t>stat_u</t>
   </si>
   <si>
@@ -83,9 +90,6 @@
     <t>syst5_u</t>
   </si>
   <si>
-    <t>syst6_c</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -114,12 +118,18 @@
   </si>
   <si>
     <t>ATLAS(2012)</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>norm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -433,23 +443,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="10.875" style="1" customWidth="1"/>
-    <col min="15" max="19" width="10.375" style="1"/>
-    <col min="20" max="22" width="10.875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.375" style="1"/>
-    <col min="24" max="24" width="13.875" style="1" customWidth="1"/>
+    <col min="1" max="14" width="10.83203125" style="1" customWidth="1"/>
+    <col min="15" max="19" width="10.33203125" style="1"/>
+    <col min="20" max="22" width="10.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" style="1"/>
+    <col min="24" max="24" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,43 +497,43 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8000</v>
       </c>
@@ -537,7 +547,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1">
         <v>630.29999999999995</v>
@@ -592,19 +602,19 @@
         <v>11.975699999999998</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
@@ -618,7 +628,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1">
         <v>635.20000000000005</v>
@@ -673,19 +683,19 @@
         <v>12.068800000000001</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8000</v>
       </c>
@@ -699,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1">
         <v>641.6</v>
@@ -754,19 +764,19 @@
         <v>12.1904</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -780,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>638.1</v>
@@ -835,19 +845,19 @@
         <v>12.123900000000001</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8000</v>
       </c>
@@ -861,7 +871,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>642.79999999999995</v>
@@ -916,19 +926,19 @@
         <v>12.213199999999999</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8000</v>
       </c>
@@ -942,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1">
         <v>654.70000000000005</v>
@@ -997,19 +1007,19 @@
         <v>12.439300000000001</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8000</v>
       </c>
@@ -1023,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1">
         <v>661</v>
@@ -1078,19 +1088,19 @@
         <v>12.558999999999999</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
@@ -1104,7 +1114,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1">
         <v>662.3</v>
@@ -1159,19 +1169,19 @@
         <v>12.583699999999999</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8000</v>
       </c>
@@ -1185,7 +1195,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1">
         <v>661.8</v>
@@ -1240,19 +1250,19 @@
         <v>12.574199999999999</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8000</v>
       </c>
@@ -1266,7 +1276,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1">
         <v>657.5</v>
@@ -1321,19 +1331,19 @@
         <v>12.4925</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8000</v>
       </c>
@@ -1347,7 +1357,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
         <v>641.5</v>
@@ -1402,19 +1412,19 @@
         <v>12.188499999999999</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>8000</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
         <v>493.7</v>
@@ -1483,19 +1493,19 @@
         <v>9.3803000000000001</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8000</v>
       </c>
@@ -1509,7 +1519,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1">
         <v>489.6</v>
@@ -1564,19 +1574,19 @@
         <v>9.3024000000000004</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>8000</v>
       </c>
@@ -1590,7 +1600,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1">
         <v>485.8</v>
@@ -1645,19 +1655,19 @@
         <v>9.2302</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8000</v>
       </c>
@@ -1671,7 +1681,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1">
         <v>474.3</v>
@@ -1726,19 +1736,19 @@
         <v>9.0116999999999994</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8000</v>
       </c>
@@ -1752,7 +1762,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1">
         <v>465</v>
@@ -1807,19 +1817,19 @@
         <v>8.8349999999999991</v>
       </c>
       <c r="U17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -1833,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1">
         <v>455.7</v>
@@ -1888,19 +1898,19 @@
         <v>8.6582999999999988</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>8000</v>
       </c>
@@ -1914,7 +1924,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1">
         <v>439.7</v>
@@ -1969,19 +1979,19 @@
         <v>8.3543000000000003</v>
       </c>
       <c r="U19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>8000</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1">
         <v>427.3</v>
@@ -2050,19 +2060,19 @@
         <v>8.1187000000000005</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>8000</v>
       </c>
@@ -2076,7 +2086,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1">
         <v>410.2</v>
@@ -2131,19 +2141,19 @@
         <v>7.7937999999999992</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>8000</v>
       </c>
@@ -2157,7 +2167,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1">
         <v>389.1</v>
@@ -2212,19 +2222,19 @@
         <v>7.3929</v>
       </c>
       <c r="U22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>8000</v>
       </c>
@@ -2238,7 +2248,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1">
         <v>368.3</v>
@@ -2293,16 +2303,16 @@
         <v>6.9977</v>
       </c>
       <c r="U23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="X23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2007.xlsx
+++ b/wzrv/expdata/2007.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B96FDA-AF60-114F-891F-44C152E4188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1580254E-DDD1-BC4A-BD65-A6A4CB4FE4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="1800" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>syst2_u</t>
   </si>
   <si>
-    <t>syst3_u</t>
-  </si>
-  <si>
     <t>syst4_u</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>norm</t>
+  </si>
+  <si>
+    <t>syst3_c</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,7 +497,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -509,28 +509,28 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -547,7 +547,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>630.29999999999995</v>
@@ -602,16 +602,16 @@
         <v>11.975699999999998</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -628,7 +628,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>635.20000000000005</v>
@@ -683,16 +683,16 @@
         <v>12.068800000000001</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>641.6</v>
@@ -764,16 +764,16 @@
         <v>12.1904</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>638.1</v>
@@ -845,16 +845,16 @@
         <v>12.123900000000001</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -871,7 +871,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>642.79999999999995</v>
@@ -926,16 +926,16 @@
         <v>12.213199999999999</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -952,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>654.70000000000005</v>
@@ -1007,16 +1007,16 @@
         <v>12.439300000000001</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
         <v>661</v>
@@ -1088,16 +1088,16 @@
         <v>12.558999999999999</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>662.3</v>
@@ -1169,16 +1169,16 @@
         <v>12.583699999999999</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1">
         <v>661.8</v>
@@ -1250,16 +1250,16 @@
         <v>12.574199999999999</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>657.5</v>
@@ -1331,16 +1331,16 @@
         <v>12.4925</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1357,7 +1357,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>641.5</v>
@@ -1412,16 +1412,16 @@
         <v>12.188499999999999</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
         <v>493.7</v>
@@ -1493,16 +1493,16 @@
         <v>9.3803000000000001</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1519,7 +1519,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <v>489.6</v>
@@ -1574,16 +1574,16 @@
         <v>9.3024000000000004</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1">
         <v>485.8</v>
@@ -1655,16 +1655,16 @@
         <v>9.2302</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1681,7 +1681,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1">
         <v>474.3</v>
@@ -1736,16 +1736,16 @@
         <v>9.0116999999999994</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -1762,7 +1762,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1">
         <v>465</v>
@@ -1817,16 +1817,16 @@
         <v>8.8349999999999991</v>
       </c>
       <c r="U17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -1843,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1">
         <v>455.7</v>
@@ -1898,16 +1898,16 @@
         <v>8.6582999999999988</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -1924,7 +1924,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1">
         <v>439.7</v>
@@ -1979,16 +1979,16 @@
         <v>8.3543000000000003</v>
       </c>
       <c r="U19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2005,7 +2005,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1">
         <v>427.3</v>
@@ -2060,16 +2060,16 @@
         <v>8.1187000000000005</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2086,7 +2086,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="1">
         <v>410.2</v>
@@ -2141,16 +2141,16 @@
         <v>7.7937999999999992</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2167,7 +2167,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="1">
         <v>389.1</v>
@@ -2222,16 +2222,16 @@
         <v>7.3929</v>
       </c>
       <c r="U22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2248,7 +2248,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="1">
         <v>368.3</v>
@@ -2303,16 +2303,16 @@
         <v>6.9977</v>
       </c>
       <c r="U23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="X23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2007.xlsx
+++ b/wzrv/expdata/2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F2454-8519-9B49-BB00-843EBD3211B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE2805E-9BBB-4547-BDAB-806A85611A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>cms</t>
   </si>
@@ -54,24 +54,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>stat</t>
-  </si>
-  <si>
-    <t>syst1</t>
-  </si>
-  <si>
-    <t>syst2</t>
-  </si>
-  <si>
-    <t>syst3</t>
-  </si>
-  <si>
-    <t>syst4</t>
-  </si>
-  <si>
-    <t>syst5</t>
-  </si>
-  <si>
     <t>stat_u</t>
   </si>
   <si>
@@ -106,9 +88,6 @@
   </si>
   <si>
     <t>ATLAS(2012)</t>
-  </si>
-  <si>
-    <t>norm</t>
   </si>
   <si>
     <t>syst3_c</t>
@@ -438,22 +417,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="19" width="10.33203125" style="1"/>
-    <col min="20" max="21" width="10.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1"/>
-    <col min="23" max="23" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="10.33203125" style="1"/>
+    <col min="13" max="14" width="10.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="1"/>
+    <col min="16" max="16" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,49 +461,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8000</v>
       </c>
@@ -538,64 +496,43 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1">
         <v>0.1215</v>
       </c>
       <c r="G2" s="1">
-        <v>0.06</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H2" s="1">
-        <v>0.45</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I2" s="1">
-        <v>0.4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="J2" s="1">
-        <v>0.48</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="K2" s="1">
-        <v>0.17</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="L2" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N2" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="O2" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P2" s="1">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="S2" s="1">
         <v>1E-3</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
@@ -609,64 +546,43 @@
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1">
         <v>0.12939999999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>0.05</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H3" s="1">
-        <v>0.48</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I3" s="1">
-        <v>0.21</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="J3" s="1">
-        <v>0.42</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="K3" s="1">
-        <v>0.13</v>
+        <v>1E-3</v>
       </c>
       <c r="L3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N3" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O3" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P3" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="Q3" s="1">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8000</v>
       </c>
@@ -680,64 +596,43 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>0.13830000000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>0.05</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H4" s="1">
-        <v>0.48</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I4" s="1">
-        <v>0.45</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="J4" s="1">
-        <v>0.4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="K4" s="1">
-        <v>0.13</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="L4" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N4" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="Q4" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="R4" s="1">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="S4" s="1">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -751,64 +646,43 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
         <v>0.14729999999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>0.06</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H5" s="1">
-        <v>0.52</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I5" s="1">
-        <v>0.23</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J5" s="1">
-        <v>0.44</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="K5" s="1">
-        <v>0.14000000000000001</v>
+        <v>1E-3</v>
       </c>
       <c r="L5" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N5" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O5" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P5" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="S5" s="1">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8000</v>
       </c>
@@ -822,64 +696,43 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
         <v>0.1605</v>
       </c>
       <c r="G6" s="1">
-        <v>0.06</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H6" s="1">
-        <v>0.6</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I6" s="1">
-        <v>0.32</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J6" s="1">
-        <v>0.42</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="K6" s="1">
-        <v>0.14000000000000001</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="L6" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N6" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O6" s="1">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="S6" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8000</v>
       </c>
@@ -893,64 +746,43 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
         <v>0.1792</v>
       </c>
       <c r="G7" s="1">
-        <v>0.04</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="H7" s="1">
-        <v>0.56000000000000005</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I7" s="1">
-        <v>0.34</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J7" s="1">
-        <v>0.39</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="K7" s="1">
-        <v>0.09</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="L7" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O7" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="R7" s="1">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="S7" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8000</v>
       </c>
@@ -964,64 +796,43 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>0.2011</v>
       </c>
       <c r="G8" s="1">
-        <v>0.06</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H8" s="1">
-        <v>0.56000000000000005</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I8" s="1">
-        <v>0.22</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J8" s="1">
-        <v>0.42</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="K8" s="1">
-        <v>0.12</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="L8" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N8" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O8" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="P8" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="R8" s="1">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="S8" s="1">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
@@ -1035,64 +846,43 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1">
         <v>0.21560000000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>0.05</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H9" s="1">
-        <v>0.62</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I9" s="1">
-        <v>0.27</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="J9" s="1">
-        <v>0.4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="K9" s="1">
-        <v>0.1</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="L9" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N9" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O9" s="1">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Q9" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="R9" s="1">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="S9" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8000</v>
       </c>
@@ -1106,64 +896,43 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>0.23469999999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>0.05</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H10" s="1">
-        <v>0.61</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I10" s="1">
-        <v>0.43</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J10" s="1">
-        <v>0.39</v>
+        <v>1.5E-3</v>
       </c>
       <c r="K10" s="1">
-        <v>0.1</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="L10" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N10" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O10" s="1">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2.3E-3</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="R10" s="1">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="S10" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8000</v>
       </c>
@@ -1177,64 +946,43 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1">
         <v>0.25650000000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.05</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H11" s="1">
-        <v>0.54</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I11" s="1">
-        <v>0.48</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="J11" s="1">
-        <v>0.43</v>
+        <v>1E-3</v>
       </c>
       <c r="K11" s="1">
-        <v>0.1</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L11" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N11" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O11" s="1">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="R11" s="1">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="S11" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8000</v>
       </c>
@@ -1248,61 +996,40 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1">
         <v>0.27060000000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.05</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H12" s="1">
-        <v>0.48</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="I12" s="1">
-        <v>0.42</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J12" s="1">
-        <v>0.41</v>
+        <v>1.4E-3</v>
       </c>
       <c r="K12" s="1">
-        <v>0.1</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L12" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="N12" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O12" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="P12" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1.4E-3</v>
-      </c>
-      <c r="R12" s="1">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="S12" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>23</v>
+      <c r="N12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2007.xlsx
+++ b/wzrv/expdata/2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE2805E-9BBB-4547-BDAB-806A85611A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E3FD30-5F90-8440-B30D-15AC12ED6B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/wzrv/expdata/2007.xlsx
+++ b/wzrv/expdata/2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E3FD30-5F90-8440-B30D-15AC12ED6B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76809F84-E0F8-AF43-9829-089145E2DDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>cms</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>A_eta_mu</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -417,22 +420,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="10.33203125" style="1"/>
-    <col min="13" max="14" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="1"/>
-    <col min="16" max="16" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="13" width="10.33203125" style="1"/>
+    <col min="14" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="1"/>
+    <col min="17" max="17" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,43 +449,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8000</v>
       </c>
@@ -495,44 +501,47 @@
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.1215</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H2" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="I2" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J2" s="1">
         <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.1999999999999999E-3</v>
       </c>
       <c r="K2" s="1">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="L2" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M2" s="1">
         <v>1E-3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
@@ -545,44 +554,47 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.12939999999999999</v>
       </c>
-      <c r="G3" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="H3" s="1">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I3" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J3" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8000</v>
       </c>
@@ -595,44 +607,47 @@
       <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.13830000000000001</v>
       </c>
-      <c r="G4" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="H4" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I4" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -645,44 +660,47 @@
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.14729999999999999</v>
       </c>
-      <c r="G5" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="H5" s="1">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I5" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J5" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1E-3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8000</v>
       </c>
@@ -695,44 +713,47 @@
       <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.1605</v>
       </c>
-      <c r="G6" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="H6" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I6" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8000</v>
       </c>
@@ -745,44 +766,47 @@
       <c r="D7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.1792</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H7" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="I7" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J7" s="1">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8000</v>
       </c>
@@ -795,44 +819,47 @@
       <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.2011</v>
       </c>
-      <c r="G8" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="H8" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I8" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J8" s="1">
-        <v>8.9999999999999998E-4</v>
       </c>
       <c r="K8" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="L8" s="1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M8" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
@@ -845,44 +872,47 @@
       <c r="D9" s="1">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.21560000000000001</v>
       </c>
-      <c r="G9" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="H9" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I9" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8000</v>
       </c>
@@ -895,44 +925,47 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.23469999999999999</v>
       </c>
-      <c r="G10" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="H10" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I10" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>2.3E-3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8000</v>
       </c>
@@ -945,44 +978,47 @@
       <c r="D11" s="1">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.25650000000000001</v>
       </c>
-      <c r="G11" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="H11" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I11" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>1E-3</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8000</v>
       </c>
@@ -995,40 +1031,43 @@
       <c r="D12" s="1">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.27060000000000001</v>
       </c>
-      <c r="G12" s="1">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="H12" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I12" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J12" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K12" s="1">
         <v>1.4E-3</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/wzrv/expdata/2007.xlsx
+++ b/wzrv/expdata/2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76809F84-E0F8-AF43-9829-089145E2DDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F0A6B-6CBE-9B4F-8E75-C293DD4C078A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,7 +502,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
@@ -555,7 +555,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -608,7 +608,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -661,7 +661,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
@@ -767,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -820,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
@@ -873,7 +873,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -926,7 +926,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -979,7 +979,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -1032,7 +1032,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>

--- a/wzrv/expdata/2007.xlsx
+++ b/wzrv/expdata/2007.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F0A6B-6CBE-9B4F-8E75-C293DD4C078A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3D3C6-45A9-B940-BD8A-7693C0C4B6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
-  <si>
-    <t>cms</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>eta_min</t>
   </si>
@@ -97,22 +94,26 @@
   </si>
   <si>
     <t>A_eta_mu</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,9 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -420,92 +424,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1"/>
+    <col min="3" max="8" width="10.83203125" style="1" customWidth="1"/>
     <col min="9" max="13" width="10.33203125" style="1"/>
     <col min="14" max="15" width="10.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="1"/>
-    <col min="17" max="17" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="D2" s="1">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>0.1215</v>
@@ -529,36 +527,30 @@
         <v>1E-3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>0.21</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.42</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="1">
-        <v>70</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>0.12939999999999999</v>
@@ -582,36 +574,30 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>0.42</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.63</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1">
-        <v>70</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>0.13830000000000001</v>
@@ -635,36 +621,30 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>0.63</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.84</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1">
-        <v>70</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
         <v>0.14729999999999999</v>
@@ -688,36 +668,30 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>0.84</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1.05</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="1">
-        <v>70</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1">
         <v>0.1605</v>
@@ -741,36 +715,30 @@
         <v>1.5E-3</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>1.05</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1.37</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="1">
-        <v>70</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
         <v>0.1792</v>
@@ -794,36 +762,30 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>1.37</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>1.52</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>25</v>
       </c>
-      <c r="E8" s="1">
-        <v>70</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <v>0.2011</v>
@@ -847,36 +809,30 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>1.52</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>1.74</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="E9" s="1">
-        <v>70</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
         <v>0.21560000000000001</v>
@@ -900,36 +856,30 @@
         <v>1.5E-3</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>1.74</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>1.95</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>25</v>
       </c>
-      <c r="E10" s="1">
-        <v>70</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
         <v>0.23469999999999999</v>
@@ -953,36 +903,30 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>1.95</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>25</v>
       </c>
-      <c r="E11" s="1">
-        <v>70</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1">
         <v>0.25650000000000001</v>
@@ -1006,36 +950,30 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>2.4</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>25</v>
       </c>
-      <c r="E12" s="1">
-        <v>70</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1">
         <v>0.27060000000000001</v>
@@ -1059,16 +997,10 @@
         <v>1.5E-3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
